--- a/Excels/产品功能列表20180503.xlsx
+++ b/Excels/产品功能列表20180503.xlsx
@@ -19,7 +19,7 @@
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="0">
+    <comment ref="D25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="D32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0">
+    <comment ref="E32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C33" authorId="0">
+    <comment ref="D33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
+    <comment ref="E33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0">
+    <comment ref="D34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0">
+    <comment ref="E34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0">
+    <comment ref="F35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0">
+    <comment ref="D36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0">
+    <comment ref="E39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="F39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0">
+    <comment ref="F42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0">
+    <comment ref="E48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0">
+    <comment ref="D49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D49" authorId="0">
+    <comment ref="E49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
+    <comment ref="F55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0">
+    <comment ref="D60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0">
+    <comment ref="D61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D64" authorId="0">
+    <comment ref="E64" authorId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0">
+    <comment ref="D65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D65" authorId="0">
+    <comment ref="E65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D73" authorId="0">
+    <comment ref="E73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C75" authorId="0">
+    <comment ref="D75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C76" authorId="0">
+    <comment ref="D76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C77" authorId="0">
+    <comment ref="D77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -527,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0">
+    <comment ref="D78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0">
+    <comment ref="D80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C81" authorId="0">
+    <comment ref="D81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C83" authorId="0">
+    <comment ref="D83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0">
+    <comment ref="E86" authorId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C88" authorId="0">
+    <comment ref="D88" authorId="0">
       <text>
         <r>
           <rPr>
@@ -673,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C94" authorId="0">
+    <comment ref="D94" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E101" authorId="0">
+    <comment ref="F101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C108" authorId="0">
+    <comment ref="D108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="0">
+    <comment ref="F108" authorId="0">
       <text>
         <r>
           <rPr>
@@ -746,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C109" authorId="0">
+    <comment ref="D109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -759,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D109" authorId="0">
+    <comment ref="E109" authorId="0">
       <text>
         <r>
           <rPr>
@@ -774,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E113" authorId="0">
+    <comment ref="F113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -798,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C116" authorId="0">
+    <comment ref="D116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -822,7 +822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C127" authorId="0">
+    <comment ref="D127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -834,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C128" authorId="0">
+    <comment ref="D128" authorId="0">
       <text>
         <r>
           <rPr>
@@ -846,7 +846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C131" authorId="0">
+    <comment ref="D131" authorId="0">
       <text>
         <r>
           <rPr>
@@ -870,7 +870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C133" authorId="0">
+    <comment ref="D133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E136" authorId="0">
+    <comment ref="F136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -918,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C137" authorId="0">
+    <comment ref="D137" authorId="0">
       <text>
         <r>
           <rPr>
@@ -930,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C139" authorId="0">
+    <comment ref="D139" authorId="0">
       <text>
         <r>
           <rPr>
@@ -943,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E139" authorId="0">
+    <comment ref="F139" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C146" authorId="0">
+    <comment ref="D146" authorId="0">
       <text>
         <r>
           <rPr>
@@ -967,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C147" authorId="0">
+    <comment ref="D147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -980,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E149" authorId="0">
+    <comment ref="F149" authorId="0">
       <text>
         <r>
           <rPr>
@@ -992,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C158" authorId="0">
+    <comment ref="D158" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D158" authorId="0">
+    <comment ref="E158" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C161" authorId="0">
+    <comment ref="D161" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C164" authorId="0">
+    <comment ref="D164" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C167" authorId="0">
+    <comment ref="D167" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C168" authorId="0">
+    <comment ref="D168" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C174" authorId="0">
+    <comment ref="D174" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D175" authorId="0">
+    <comment ref="E175" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C178" authorId="0">
+    <comment ref="D178" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1187,7 +1187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E180" authorId="0">
+    <comment ref="F180" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C182" authorId="0">
+    <comment ref="D182" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1212,7 +1212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C183" authorId="0">
+    <comment ref="D183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C184" authorId="0">
+    <comment ref="D184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C185" authorId="0">
+    <comment ref="D185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1262,7 +1262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C187" authorId="0">
+    <comment ref="D187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1275,7 +1275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D187" authorId="0">
+    <comment ref="E187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1288,7 +1288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D189" authorId="0">
+    <comment ref="E189" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1302,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E191" authorId="0">
+    <comment ref="F191" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1314,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C195" authorId="0">
+    <comment ref="D195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E195" authorId="0">
+    <comment ref="F195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1340,7 +1340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C197" authorId="0">
+    <comment ref="D197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C201" authorId="0">
+    <comment ref="D201" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D202" authorId="0">
+    <comment ref="E202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1379,7 +1379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C203" authorId="0">
+    <comment ref="D203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C211" authorId="0">
+    <comment ref="D211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1428,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D212" authorId="0">
+    <comment ref="E212" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1455,7 +1455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C220" authorId="0">
+    <comment ref="D220" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1468,10 +1468,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="E220" authorId="0">
+    <comment ref="F220" authorId="0">
       <text/>
     </comment>
-    <comment ref="D221" authorId="0">
+    <comment ref="E221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1491,7 +1491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495">
   <si>
     <t>Medeli英文</t>
   </si>
@@ -1508,6 +1508,9 @@
     </r>
   </si>
   <si>
+    <t>发音</t>
+  </si>
+  <si>
     <t>Medeli中文</t>
   </si>
   <si>
@@ -1532,6 +1535,9 @@
     <t>[ə'kʌmpənɪmənt]</t>
   </si>
   <si>
+    <t>accompaniment</t>
+  </si>
+  <si>
     <t>伴奏</t>
   </si>
   <si>
@@ -1559,7 +1565,10 @@
     <t>Album</t>
   </si>
   <si>
-    <t>['ælbəm]</t>
+    <t xml:space="preserve"> ['ælbəm]</t>
+  </si>
+  <si>
+    <t>album</t>
   </si>
   <si>
     <t>歌本</t>
@@ -1578,7 +1587,10 @@
     <t>Aliquot (Yamaha）</t>
   </si>
   <si>
-    <t>['ælɪkwɒt]</t>
+    <t xml:space="preserve"> ['ælɪkwɒt]</t>
+  </si>
+  <si>
+    <t>aliquot</t>
   </si>
   <si>
     <t xml:space="preserve">Aliquot </t>
@@ -1591,7 +1603,7 @@
     <t>Aliquot resonance (Yamaha）</t>
   </si>
   <si>
-    <t>['ælɪkwɒt] ['rɛznəns]</t>
+    <t xml:space="preserve"> ['ælɪkwɒt] ['rɛznəns]</t>
   </si>
   <si>
     <t>Aliquot resonance</t>
@@ -1603,7 +1615,10 @@
     <t>Amplifier</t>
   </si>
   <si>
-    <t>['æmplɪfaɪɚ]</t>
+    <t xml:space="preserve"> ['æmplɪfaɪɚ]</t>
+  </si>
+  <si>
+    <t>amplifier</t>
   </si>
   <si>
     <t>功放</t>
@@ -1619,6 +1634,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -1635,7 +1656,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="BatangChe"/>
-        <charset val="134"/>
+        <charset val="129"/>
       </rPr>
       <t>ː</t>
     </r>
@@ -1650,6 +1671,9 @@
     </r>
   </si>
   <si>
+    <t>arpeggiator</t>
+  </si>
+  <si>
     <t>琶音器</t>
   </si>
   <si>
@@ -1660,6 +1684,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -1682,6 +1712,9 @@
     </r>
   </si>
   <si>
+    <t>arpeggio</t>
+  </si>
+  <si>
     <t>琶音</t>
   </si>
   <si>
@@ -2437,7 +2470,36 @@
 Number of Polyphony (max.)</t>
   </si>
   <si>
-    <t>PHONES jack</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jack</t>
+    </r>
   </si>
   <si>
     <t>耳机接口</t>
@@ -2446,7 +2508,36 @@
     <t>Phones terminal</t>
   </si>
   <si>
-    <t>PHONES/OUTPUT jack</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hones/Output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jack</t>
+    </r>
   </si>
   <si>
     <t>耳机/输出接口</t>
@@ -3043,11 +3134,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3083,15 +3174,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3103,81 +3194,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3194,7 +3211,79 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3208,8 +3297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3231,10 +3321,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3246,13 +3337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3262,7 +3346,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="BatangChe"/>
-      <charset val="134"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3293,13 +3377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3311,7 +3389,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3323,37 +3431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,31 +3449,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3407,67 +3551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3612,6 +3696,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3630,8 +3723,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3651,17 +3744,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3681,20 +3768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3717,10 +3801,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3729,137 +3813,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3887,6 +3971,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3905,19 +3992,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -3941,7 +4028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3956,7 +4043,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -3974,7 +4061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -4001,7 +4088,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4352,27 +4439,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="35.625" customWidth="1"/>
-    <col min="2" max="2" width="19" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="55.5" customWidth="1"/>
+    <col min="2" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4382,2920 +4469,3161 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="13"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="14"/>
-    </row>
-    <row r="7" ht="94.5" spans="1:6">
-      <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" ht="94.5" spans="1:7">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" ht="175.5" spans="1:6">
-      <c r="A8" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16" t="s">
+    </row>
+    <row r="8" ht="175.5" spans="1:7">
+      <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" ht="27" spans="1:6">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="18" t="s">
+    <row r="9" ht="27" spans="1:7">
+      <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="14"/>
-    </row>
-    <row r="12" ht="54" spans="1:6">
-      <c r="A12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" ht="54" spans="1:7">
+      <c r="A12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="B12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="D12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="13"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22" t="s">
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
+      <c r="E15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="13"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1" spans="1:7">
+      <c r="A27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="13"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="11"/>
       <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="11"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="13"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="13"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="13"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="F34" s="14"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
-      <c r="A35" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="25"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:7">
+      <c r="A35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="26"/>
       <c r="C35" s="26"/>
-      <c r="D35" s="27" t="s">
-        <v>86</v>
-      </c>
+      <c r="D35" s="27"/>
       <c r="E35" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="13"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="10" t="s">
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:7">
+      <c r="A49" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="15"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="15"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="15"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:7">
+      <c r="A67" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:7">
+      <c r="A68" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="31"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="14"/>
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="14"/>
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74" s="14"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F86" s="21"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="14"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="14"/>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F91" s="14"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F92" s="14"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F95" s="14"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="11"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" s="11"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E100" s="11"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E103" s="11"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E105" s="11"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="15"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F107" s="14"/>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F109" s="14"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F111" s="14"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="15"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="15"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G117" s="15"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F118" s="14"/>
+      <c r="G118" s="15"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E119" s="11"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="15"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F120" s="14"/>
+      <c r="G120" s="15"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="15"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E122" s="11"/>
+      <c r="F122" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="G122" s="15"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="15"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E124" s="11"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="15"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G125" s="15"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E126" s="11"/>
+      <c r="G126" s="37"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127" s="11"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="15"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="15"/>
+    </row>
+    <row r="129" ht="27" spans="1:7">
+      <c r="A129" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E129" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F129" s="29"/>
+      <c r="G129" s="15"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F130" s="29"/>
+      <c r="G130" s="15"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="E131" s="11"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="15"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="15"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E133" s="11"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="15"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E134" s="11"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="15"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="15"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G136" s="15"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
-      <c r="A49" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="14"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="14"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="14"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="F66" s="14"/>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:6">
-      <c r="A67" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:6">
-      <c r="A68" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="14"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" s="14"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="14"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" s="10"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="14"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="14"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="14"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="10"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="14"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="14"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="14"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="14"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="14"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="14"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="14"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D94" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E94" s="20"/>
-      <c r="F94" s="12"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="14"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D99" s="10"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" s="10"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="14"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F101" s="14"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D102" s="10"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="14"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="14"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D104" s="10"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="14"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" s="10"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="10"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="14"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="14"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F108" s="14"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E109" s="13"/>
-      <c r="F109" s="14"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="14"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="D111" s="15" t="s">
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E137" s="11"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="15"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E138" s="11"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="15"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="G139" s="15"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F140" s="14"/>
+      <c r="G140" s="15"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E141" s="11"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="15"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="G142" s="15"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="15"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="15"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E145" s="40"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="40"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F146" s="14"/>
+      <c r="G146" s="15"/>
+    </row>
+    <row r="147" ht="27" spans="1:7">
+      <c r="A147" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G147" s="15"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="B148" s="43"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="15"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G149" s="15"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F150" s="14"/>
+      <c r="G150" s="15"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F151" s="14"/>
+      <c r="G151" s="15"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="15"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G153" s="15"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="F154" s="14"/>
+      <c r="G154" s="15"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F155" s="14"/>
+      <c r="G155" s="15"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="E156" s="11"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="15"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E157" s="11"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="15"/>
+    </row>
+    <row r="158" s="4" customFormat="1" spans="1:7">
+      <c r="A158" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B158" s="44"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="G158" s="46"/>
+    </row>
+    <row r="159" s="4" customFormat="1" spans="1:7">
+      <c r="A159" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B159" s="44"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="E159" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="F159" s="29"/>
+      <c r="G159" s="46"/>
+    </row>
+    <row r="160" s="4" customFormat="1" spans="1:7">
+      <c r="A160" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B160" s="44"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="E160" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="F160" s="29"/>
+      <c r="G160" s="46"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E161" s="11"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="15"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E162" s="11"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="15"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F163" s="14"/>
+      <c r="G163" s="15"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E164" s="11"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="15"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E165" s="11"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="15"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F166" s="14"/>
+      <c r="G166" s="15"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="E167" s="11"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="15"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="E168" s="11"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="15"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E169" s="11"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="15"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E170" s="11"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="15"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="E171" s="11"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="15"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E172" s="11"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="15"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G173" s="15"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F174" s="14"/>
+      <c r="G174" s="15"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F175" s="14"/>
+      <c r="G175" s="15"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G176" s="15"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E177" s="11"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="15"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E178" s="11"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="15"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="E179" s="11"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="15"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G180" s="15"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E181" s="11"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="15"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E182" s="11"/>
+      <c r="F182" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="G182" s="15"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F183" s="14"/>
+      <c r="G183" s="15"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="F184" s="14"/>
+      <c r="G184" s="15"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E185" s="13"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="13"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F186" s="14"/>
+      <c r="G186" s="15"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="F187" s="14"/>
+      <c r="G187" s="15"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F188" s="14"/>
+      <c r="G188" s="15"/>
+    </row>
+    <row r="189" s="2" customFormat="1" spans="1:7">
+      <c r="A189" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B189" s="26"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="E189" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="F189" s="29"/>
+      <c r="G189" s="30"/>
+    </row>
+    <row r="190" s="2" customFormat="1" spans="1:7">
+      <c r="A190" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B190" s="26"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="E190" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="F190" s="29"/>
+      <c r="G190" s="30"/>
+    </row>
+    <row r="191" s="2" customFormat="1" spans="1:7">
+      <c r="A191" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="E191" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="F191" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G191" s="30"/>
+    </row>
+    <row r="192" s="2" customFormat="1" spans="1:7">
+      <c r="A192" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B192" s="26"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="F192" s="29"/>
+      <c r="G192" s="30"/>
+    </row>
+    <row r="193" s="2" customFormat="1" spans="1:7">
+      <c r="A193" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B193" s="26"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="E193" s="25"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="30"/>
+    </row>
+    <row r="194" s="2" customFormat="1" spans="1:7">
+      <c r="A194" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="E194" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="F194" s="29"/>
+      <c r="G194" s="30"/>
+    </row>
+    <row r="195" s="2" customFormat="1" spans="1:7">
+      <c r="A195" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B195" s="26"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="E195" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="F195" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="G195" s="30"/>
+    </row>
+    <row r="196" s="2" customFormat="1" spans="1:7">
+      <c r="A196" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="E196" s="25"/>
+      <c r="F196" s="29"/>
+      <c r="G196" s="30"/>
+    </row>
+    <row r="197" s="2" customFormat="1" spans="1:7">
+      <c r="A197" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="B197" s="26"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="E197" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="F197" s="29"/>
+      <c r="G197" s="30"/>
+    </row>
+    <row r="198" s="2" customFormat="1" spans="1:7">
+      <c r="A198" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E198" s="25"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="30"/>
+    </row>
+    <row r="199" s="2" customFormat="1" spans="1:7">
+      <c r="A199" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="F199" s="29"/>
+      <c r="G199" s="30"/>
+    </row>
+    <row r="200" s="2" customFormat="1" spans="1:7">
+      <c r="A200" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="E200" s="25"/>
+      <c r="F200" s="29"/>
+      <c r="G200" s="30"/>
+    </row>
+    <row r="201" s="2" customFormat="1" spans="1:7">
+      <c r="A201" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="E201" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="F201" s="29"/>
+      <c r="G201" s="30"/>
+    </row>
+    <row r="202" s="2" customFormat="1" spans="1:7">
+      <c r="A202" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B202" s="26"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F202" s="29"/>
+      <c r="G202" s="30"/>
+    </row>
+    <row r="203" s="2" customFormat="1" spans="1:7">
+      <c r="A203" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="E203" s="25"/>
+      <c r="F203" s="29"/>
+      <c r="G203" s="30"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="14"/>
+      <c r="G204" s="30"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="F205" s="14"/>
+      <c r="G205" s="30"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="F206" s="14"/>
+      <c r="G206" s="15"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B207" s="12"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="F207" s="14"/>
+      <c r="G207" s="15"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="F208" s="14"/>
+      <c r="G208" s="15"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="14"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D112" s="10"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="14"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F113" s="14"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D114" s="10"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="14"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F115" s="14"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E116" s="13"/>
-      <c r="F116" s="14"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F117" s="14"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="14"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D119" s="10"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="14"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="14"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="14"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D122" s="10"/>
-      <c r="E122" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F122" s="14"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D123" s="10"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="14"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D124" s="10"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="14"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D125" s="10"/>
-      <c r="E125" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F125" s="14"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="B126" s="34"/>
-      <c r="C126" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D126" s="10"/>
-      <c r="F126" s="36"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="14"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="14"/>
-    </row>
-    <row r="129" ht="27" spans="1:6">
-      <c r="A129" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D129" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="E129" s="28"/>
-      <c r="F129" s="14"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E130" s="28"/>
-      <c r="F130" s="14"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="14"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D132" s="10"/>
-      <c r="E132" s="28"/>
-      <c r="F132" s="14"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="D133" s="10"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="14"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D134" s="10"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="14"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="D135" s="10"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="14"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="F136" s="14"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D137" s="10"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="14"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D138" s="10"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="14"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="F139" s="14"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="E140" s="13"/>
-      <c r="F140" s="14"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D141" s="10"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="14"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="F142" s="14"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D143" s="10"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="14"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D144" s="10"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="14"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="B145" s="21"/>
-      <c r="C145" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="D145" s="39"/>
-      <c r="E145" s="40"/>
-      <c r="F145" s="39"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E146" s="13"/>
-      <c r="F146" s="14"/>
-    </row>
-    <row r="147" ht="27" spans="1:6">
-      <c r="A147" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="B147" s="42"/>
-      <c r="C147" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F147" s="14"/>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="B148" s="42"/>
-      <c r="C148" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E148" s="13"/>
-      <c r="F148" s="14"/>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E149" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F149" s="14"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E150" s="13"/>
-      <c r="F150" s="14"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E151" s="13"/>
-      <c r="F151" s="14"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D152" s="10"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="14"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B153" s="11"/>
-      <c r="C153" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D153" s="10"/>
-      <c r="E153" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="F153" s="14"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E154" s="13"/>
-      <c r="F154" s="14"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E155" s="13"/>
-      <c r="F155" s="14"/>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D156" s="10"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="14"/>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D157" s="10"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="14"/>
-    </row>
-    <row r="158" s="4" customFormat="1" spans="1:6">
-      <c r="A158" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="B158" s="43"/>
-      <c r="C158" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="E158" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="F158" s="45"/>
-    </row>
-    <row r="159" s="4" customFormat="1" spans="1:6">
-      <c r="A159" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="B159" s="43"/>
-      <c r="C159" s="44" t="s">
-        <v>355</v>
-      </c>
-      <c r="D159" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="E159" s="28"/>
-      <c r="F159" s="45"/>
-    </row>
-    <row r="160" s="4" customFormat="1" spans="1:6">
-      <c r="A160" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="B160" s="43"/>
-      <c r="C160" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="E160" s="28"/>
-      <c r="F160" s="45"/>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B161" s="11"/>
-      <c r="C161" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="14"/>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B162" s="11"/>
-      <c r="C162" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D162" s="10"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="14"/>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B163" s="11"/>
-      <c r="C163" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="E163" s="13"/>
-      <c r="F163" s="14"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B164" s="11"/>
-      <c r="C164" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="D164" s="10"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="14"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B165" s="11"/>
-      <c r="C165" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="D165" s="10"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="14"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B166" s="11"/>
-      <c r="C166" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="E166" s="13"/>
-      <c r="F166" s="14"/>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B167" s="11"/>
-      <c r="C167" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D167" s="10"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="14"/>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B168" s="11"/>
-      <c r="C168" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D168" s="10"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="14"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D169" s="10"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="14"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B170" s="11"/>
-      <c r="C170" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="D170" s="10"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="14"/>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B171" s="11"/>
-      <c r="C171" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="D171" s="10"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="14"/>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="B172" s="11"/>
-      <c r="C172" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D172" s="10"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="14"/>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="F173" s="14"/>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B174" s="11"/>
-      <c r="C174" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E174" s="13"/>
-      <c r="F174" s="14"/>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B175" s="11"/>
-      <c r="C175" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E175" s="13"/>
-      <c r="F175" s="14"/>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D176" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="E176" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="F176" s="14"/>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B177" s="11"/>
-      <c r="C177" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D177" s="10"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="14"/>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B178" s="11"/>
-      <c r="C178" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="D178" s="10"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="14"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B179" s="11"/>
-      <c r="C179" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="14"/>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B180" s="11"/>
-      <c r="C180" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F180" s="14"/>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B181" s="11"/>
-      <c r="C181" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="D181" s="10"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="14"/>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B182" s="11"/>
-      <c r="C182" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="D182" s="10"/>
-      <c r="E182" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F182" s="14"/>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B183" s="11"/>
-      <c r="C183" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="D183" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="E183" s="13"/>
-      <c r="F183" s="14"/>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B184" s="11"/>
-      <c r="C184" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="E184" s="13"/>
-      <c r="F184" s="14"/>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B185" s="31"/>
-      <c r="C185" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D185" s="12"/>
-      <c r="E185" s="20"/>
-      <c r="F185" s="12"/>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B186" s="11"/>
-      <c r="C186" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="D186" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="E186" s="13"/>
-      <c r="F186" s="14"/>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B187" s="11"/>
-      <c r="C187" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="D187" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="E187" s="13"/>
-      <c r="F187" s="14"/>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B188" s="11"/>
-      <c r="C188" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="D188" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="E188" s="13"/>
-      <c r="F188" s="14"/>
-    </row>
-    <row r="189" s="2" customFormat="1" spans="1:6">
-      <c r="A189" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="B189" s="25"/>
-      <c r="C189" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="D189" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="E189" s="28"/>
-      <c r="F189" s="29"/>
-    </row>
-    <row r="190" s="2" customFormat="1" spans="1:6">
-      <c r="A190" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="B190" s="25"/>
-      <c r="C190" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="D190" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="E190" s="28"/>
-      <c r="F190" s="29"/>
-    </row>
-    <row r="191" s="2" customFormat="1" spans="1:6">
-      <c r="A191" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="B191" s="25"/>
-      <c r="C191" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="D191" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E191" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="F191" s="29"/>
-    </row>
-    <row r="192" s="2" customFormat="1" spans="1:6">
-      <c r="A192" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B192" s="25"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E192" s="28"/>
-      <c r="F192" s="29"/>
-    </row>
-    <row r="193" s="2" customFormat="1" spans="1:6">
-      <c r="A193" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="B193" s="25"/>
-      <c r="C193" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="D193" s="24"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="29"/>
-    </row>
-    <row r="194" s="2" customFormat="1" spans="1:6">
-      <c r="A194" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="B194" s="25"/>
-      <c r="C194" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="D194" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="E194" s="28"/>
-      <c r="F194" s="29"/>
-    </row>
-    <row r="195" s="2" customFormat="1" spans="1:6">
-      <c r="A195" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="B195" s="25"/>
-      <c r="C195" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D195" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="E195" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="F195" s="29"/>
-    </row>
-    <row r="196" s="2" customFormat="1" spans="1:6">
-      <c r="A196" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="B196" s="25"/>
-      <c r="C196" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="D196" s="24"/>
-      <c r="E196" s="28"/>
-      <c r="F196" s="29"/>
-    </row>
-    <row r="197" s="2" customFormat="1" spans="1:6">
-      <c r="A197" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="B197" s="25"/>
-      <c r="C197" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="D197" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="E197" s="28"/>
-      <c r="F197" s="29"/>
-    </row>
-    <row r="198" s="2" customFormat="1" spans="1:6">
-      <c r="A198" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="B198" s="25"/>
-      <c r="C198" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="D198" s="24"/>
-      <c r="E198" s="28"/>
-      <c r="F198" s="29"/>
-    </row>
-    <row r="199" s="2" customFormat="1" spans="1:6">
-      <c r="A199" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B199" s="25"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="E199" s="28"/>
-      <c r="F199" s="29"/>
-    </row>
-    <row r="200" s="2" customFormat="1" spans="1:6">
-      <c r="A200" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="B200" s="25"/>
-      <c r="C200" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="D200" s="24"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="29"/>
-    </row>
-    <row r="201" s="2" customFormat="1" spans="1:6">
-      <c r="A201" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="B201" s="25"/>
-      <c r="C201" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="D201" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="E201" s="28"/>
-      <c r="F201" s="29"/>
-    </row>
-    <row r="202" s="2" customFormat="1" spans="1:6">
-      <c r="A202" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B202" s="25"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E202" s="28"/>
-      <c r="F202" s="29"/>
-    </row>
-    <row r="203" s="2" customFormat="1" spans="1:6">
-      <c r="A203" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="B203" s="25"/>
-      <c r="C203" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="D203" s="24"/>
-      <c r="E203" s="28"/>
-      <c r="F203" s="29"/>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="B204" s="25"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="24"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="29"/>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B205" s="25"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="E205" s="13"/>
-      <c r="F205" s="29"/>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B206" s="11"/>
-      <c r="C206" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E206" s="13"/>
-      <c r="F206" s="14"/>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B207" s="11"/>
-      <c r="C207" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="D207" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="E207" s="13"/>
-      <c r="F207" s="14"/>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B208" s="11"/>
-      <c r="C208" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D208" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="E208" s="13"/>
-      <c r="F208" s="14"/>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B209" s="11"/>
-      <c r="C209" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D209" s="10"/>
-      <c r="E209" s="13"/>
+      <c r="E209" s="11"/>
       <c r="F209" s="14"/>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B210" s="11"/>
-      <c r="C210" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="D210" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="E210" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="F210" s="14"/>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B211" s="11"/>
-      <c r="C211" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D211" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="E211" s="13"/>
+      <c r="G209" s="15"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="G210" s="15"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>471</v>
+      </c>
       <c r="F211" s="14"/>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D212" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="E212" s="13"/>
+      <c r="G211" s="15"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>473</v>
+      </c>
       <c r="F212" s="14"/>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B213" s="11"/>
-      <c r="C213" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="D213" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="E213" s="13"/>
+      <c r="G212" s="15"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>475</v>
+      </c>
       <c r="F213" s="14"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="B214" s="11"/>
-      <c r="C214" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="D214" s="10"/>
-      <c r="E214" s="13"/>
+      <c r="G213" s="15"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E214" s="11"/>
       <c r="F214" s="14"/>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B215" s="11"/>
-      <c r="C215" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="D215" s="10"/>
-      <c r="E215" s="13"/>
+      <c r="G214" s="15"/>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E215" s="11"/>
       <c r="F215" s="14"/>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B216" s="11"/>
+      <c r="G215" s="15"/>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B216" s="12"/>
       <c r="C216" s="12"/>
-      <c r="D216" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="E216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="11" t="s">
+        <v>481</v>
+      </c>
       <c r="F216" s="14"/>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B217" s="11"/>
+      <c r="G216" s="15"/>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B217" s="12"/>
       <c r="C217" s="12"/>
-      <c r="D217" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="E217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="11" t="s">
+        <v>482</v>
+      </c>
       <c r="F217" s="14"/>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="B218" s="11"/>
-      <c r="C218" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D218" s="10"/>
-      <c r="E218" s="13"/>
+      <c r="G217" s="15"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="E218" s="11"/>
       <c r="F218" s="14"/>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B219" s="11"/>
-      <c r="C219" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="E219" s="13"/>
+      <c r="G218" s="15"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>485</v>
+      </c>
       <c r="F219" s="14"/>
-    </row>
-    <row r="220" s="2" customFormat="1" spans="1:6">
-      <c r="A220" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="B220" s="46"/>
-      <c r="C220" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="D220" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="E220" s="44" t="s">
-        <v>482</v>
-      </c>
-      <c r="F220" s="26"/>
-    </row>
-    <row r="221" s="2" customFormat="1" spans="1:6">
-      <c r="A221" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B221" s="46"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="E221" s="44"/>
-      <c r="F221" s="26"/>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B222" s="11"/>
-      <c r="C222" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D222" s="10"/>
-      <c r="E222" s="13"/>
+      <c r="G219" s="15"/>
+    </row>
+    <row r="220" s="2" customFormat="1" spans="1:7">
+      <c r="A220" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="B220" s="47"/>
+      <c r="C220" s="47"/>
+      <c r="D220" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="E220" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="F220" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="G220" s="27"/>
+    </row>
+    <row r="221" s="2" customFormat="1" spans="1:7">
+      <c r="A221" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B221" s="47"/>
+      <c r="C221" s="47"/>
+      <c r="D221" s="27"/>
+      <c r="E221" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="F221" s="45"/>
+      <c r="G221" s="27"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B222" s="12"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="E222" s="11"/>
       <c r="F222" s="14"/>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B223" s="11"/>
-      <c r="C223" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D223" s="10"/>
-      <c r="E223" s="13"/>
+      <c r="G222" s="15"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E223" s="11"/>
       <c r="F223" s="14"/>
+      <c r="G223" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/产品功能列表20180503.xlsx
+++ b/Excels/产品功能列表20180503.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="361"/>
+    <workbookView windowWidth="10695" windowHeight="9930" tabRatio="361"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539">
   <si>
     <t>Medeli英文</t>
   </si>
@@ -1721,6 +1721,9 @@
     <t>Assign jack</t>
   </si>
   <si>
+    <t>assign</t>
+  </si>
+  <si>
     <t>多功能踏板接口</t>
   </si>
   <si>
@@ -1730,6 +1733,9 @@
     <t>Attack</t>
   </si>
   <si>
+    <t>attack</t>
+  </si>
+  <si>
     <t>音头（起音）</t>
   </si>
   <si>
@@ -1766,18 +1772,27 @@
     <t>Balance</t>
   </si>
   <si>
+    <t>balance</t>
+  </si>
+  <si>
     <t>平衡</t>
   </si>
   <si>
     <t>Bank</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
     <t>记忆库</t>
   </si>
   <si>
     <t>Bass</t>
   </si>
   <si>
+    <t>bass</t>
+  </si>
+  <si>
     <t>低音</t>
   </si>
   <si>
@@ -1790,24 +1805,36 @@
     <t>Bass invert</t>
   </si>
   <si>
+    <t>invert</t>
+  </si>
+  <si>
     <t>(和弦）多指贝司转位模式</t>
   </si>
   <si>
     <t>Bass reflex</t>
   </si>
   <si>
+    <t>reflex</t>
+  </si>
+  <si>
     <t>(喇叭）倒相式</t>
   </si>
   <si>
     <t>Beat</t>
   </si>
   <si>
+    <t>beat</t>
+  </si>
+  <si>
     <t>节拍</t>
   </si>
   <si>
     <t>Bit depth (16-bit/24-bit)</t>
   </si>
   <si>
+    <t>depth</t>
+  </si>
+  <si>
     <t>(采样）位宽</t>
   </si>
   <si>
@@ -1826,6 +1853,9 @@
     <t>Brilliance</t>
   </si>
   <si>
+    <t>brilliance</t>
+  </si>
+  <si>
     <t>明亮度</t>
   </si>
   <si>
@@ -1853,12 +1883,18 @@
     <t>Chopper</t>
   </si>
   <si>
+    <t>chopper</t>
+  </si>
+  <si>
     <t>切片</t>
   </si>
   <si>
     <t>Chord</t>
   </si>
   <si>
+    <t>chord</t>
+  </si>
+  <si>
     <t>和弦</t>
   </si>
   <si>
@@ -1895,6 +1931,9 @@
     <t>Chorus</t>
   </si>
   <si>
+    <t>chorus</t>
+  </si>
+  <si>
     <t>合唱</t>
   </si>
   <si>
@@ -1904,28 +1943,43 @@
     <t>Compressor</t>
   </si>
   <si>
+    <t>compressor</t>
+  </si>
+  <si>
     <t>压缩(效果)</t>
   </si>
   <si>
     <t>Cosmetic changes</t>
   </si>
   <si>
+    <t>cosmetic</t>
+  </si>
+  <si>
     <t>外观变化</t>
   </si>
   <si>
     <t>Control panel</t>
   </si>
   <si>
+    <t>panel</t>
+  </si>
+  <si>
     <t>控制面板</t>
   </si>
   <si>
     <t>Cut off（frequency)</t>
   </si>
   <si>
+    <t>frequency</t>
+  </si>
+  <si>
     <t>截止频率</t>
   </si>
   <si>
     <t>Damper Resonance</t>
+  </si>
+  <si>
+    <t>resonance</t>
   </si>
   <si>
     <t>踏板弦共振</t>
@@ -1962,6 +2016,9 @@
     <t>Data bandwidth</t>
   </si>
   <si>
+    <t>bandwidth</t>
+  </si>
+  <si>
     <t>数据带宽</t>
   </si>
   <si>
@@ -1974,6 +2031,9 @@
     <t>Data dial</t>
   </si>
   <si>
+    <t>dial</t>
+  </si>
+  <si>
     <t>指轮盘</t>
   </si>
   <si>
@@ -1986,24 +2046,36 @@
     <t>Decay</t>
   </si>
   <si>
+    <t>decay</t>
+  </si>
+  <si>
     <t>衰减</t>
   </si>
   <si>
     <t>Delay</t>
   </si>
   <si>
+    <t>delay</t>
+  </si>
+  <si>
     <t>延迟</t>
   </si>
   <si>
     <t>Demo</t>
   </si>
   <si>
+    <t>demo</t>
+  </si>
+  <si>
     <t>示范曲</t>
   </si>
   <si>
     <t>Digital piano</t>
   </si>
   <si>
+    <t>digital</t>
+  </si>
+  <si>
     <t>电子钢琴</t>
   </si>
   <si>
@@ -2022,18 +2094,27 @@
     <t>Dual voice</t>
   </si>
   <si>
+    <t>dual</t>
+  </si>
+  <si>
     <t>双音色</t>
   </si>
   <si>
     <t>Duet</t>
   </si>
   <si>
+    <t>duet</t>
+  </si>
+  <si>
     <t>联奏</t>
   </si>
   <si>
     <t>Electronic keyboard</t>
   </si>
   <si>
+    <t>keyboard</t>
+  </si>
+  <si>
     <t>电子琴</t>
   </si>
   <si>
@@ -2043,6 +2124,9 @@
     <t>Electronic organ</t>
   </si>
   <si>
+    <t>organ</t>
+  </si>
+  <si>
     <t>双排键电子琴</t>
   </si>
   <si>
@@ -2058,6 +2142,9 @@
     <t>Envelope</t>
   </si>
   <si>
+    <t>envelope</t>
+  </si>
+  <si>
     <t>包络</t>
   </si>
   <si>
@@ -2067,6 +2154,9 @@
     <t>EQ（Equalizer）</t>
   </si>
   <si>
+    <t>equalizer</t>
+  </si>
+  <si>
     <t>均衡器</t>
   </si>
   <si>
@@ -2088,6 +2178,9 @@
     <t>Fade</t>
   </si>
   <si>
+    <t>fade</t>
+  </si>
+  <si>
     <t>渐强/渐弱</t>
   </si>
   <si>
@@ -2109,6 +2202,9 @@
     <t>Fill A/B/C/D</t>
   </si>
   <si>
+    <t>fill</t>
+  </si>
+  <si>
     <t>插入 A/B/C/D</t>
   </si>
   <si>
@@ -2118,6 +2214,9 @@
     <t>Filter（HPF/LPF）</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
     <t>滤波器(高通/低通滤波器)</t>
   </si>
   <si>
@@ -2133,10 +2232,16 @@
     <t>Freeze</t>
   </si>
   <si>
+    <t>freeze</t>
+  </si>
+  <si>
     <t>冻结 / 锁定</t>
   </si>
   <si>
-    <t>Full range</t>
+    <t>Fullrange</t>
+  </si>
+  <si>
+    <t>fullrange</t>
   </si>
   <si>
     <t>（和弦）全键盘模式</t>
@@ -2145,6 +2250,9 @@
     <t>Function</t>
   </si>
   <si>
+    <t>function</t>
+  </si>
+  <si>
     <t>功能</t>
   </si>
   <si>
@@ -2163,12 +2271,18 @@
     <t>Harmony</t>
   </si>
   <si>
+    <t>harmony</t>
+  </si>
+  <si>
     <t>和声</t>
   </si>
   <si>
     <t>Harmonics</t>
   </si>
   <si>
+    <t>harmonics</t>
+  </si>
+  <si>
     <t>泛音/谐波</t>
   </si>
   <si>
@@ -2181,6 +2295,9 @@
     <t>Intro</t>
   </si>
   <si>
+    <t>intro</t>
+  </si>
+  <si>
     <t>前奏</t>
   </si>
   <si>
@@ -2196,6 +2313,9 @@
     <t>Layer</t>
   </si>
   <si>
+    <t>layer</t>
+  </si>
+  <si>
     <t>Left/Right（L/R）</t>
   </si>
   <si>
@@ -2208,6 +2328,9 @@
     <t>Lesson</t>
   </si>
   <si>
+    <t>lesson</t>
+  </si>
+  <si>
     <t>学习</t>
   </si>
   <si>
@@ -2220,12 +2343,18 @@
     <t>Local</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>Local control</t>
   </si>
   <si>
     <t>Lo-Fi (Low-fidelity)</t>
   </si>
   <si>
+    <t>fidelity</t>
+  </si>
+  <si>
     <t>低保真效果</t>
   </si>
   <si>
@@ -2254,6 +2383,9 @@
   </si>
   <si>
     <t>Mechanical rattle</t>
+  </si>
+  <si>
+    <t>rattle</t>
   </si>
   <si>
     <t>机震</t>
@@ -3133,9 +3265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -3194,7 +3326,66 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3211,33 +3402,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3245,29 +3416,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3281,27 +3439,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3313,25 +3455,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3356,7 +3488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3371,7 +3503,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3383,25 +3617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3413,13 +3641,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3431,115 +3677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3551,7 +3689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3700,7 +3838,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3716,54 +3854,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3785,6 +3875,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3793,6 +3916,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3801,149 +3939,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4044,6 +4182,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -4442,11 +4583,11 @@
   <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4687,39 +4828,43 @@
         <v>51</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="21"/>
@@ -4727,27 +4872,27 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="21"/>
@@ -4755,12 +4900,12 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="24"/>
@@ -4768,40 +4913,44 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="D21" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="D22" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="14"/>
@@ -4809,27 +4958,29 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="D23" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="14"/>
@@ -4837,12 +4988,14 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="D25" s="13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="14"/>
@@ -4850,12 +5003,14 @@
     </row>
     <row r="26" ht="12.75" customHeight="1" spans="1:7">
       <c r="A26" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="D26" s="13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="14"/>
@@ -4863,27 +5018,31 @@
     </row>
     <row r="27" ht="12.75" customHeight="1" spans="1:7">
       <c r="A27" s="11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="D27" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="D28" s="13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="14"/>
@@ -4891,25 +5050,25 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="14"/>
@@ -4917,85 +5076,89 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
       <c r="E31" s="16" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="D32" s="13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:7">
       <c r="A35" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="27"/>
       <c r="E35" s="28" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="16" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="C36" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="D36" s="13" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="14"/>
@@ -5003,59 +5166,67 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="11" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="D37" s="13" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="11" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="D38" s="13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="D39" s="13" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="16" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="D40" s="13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="14"/>
@@ -5063,55 +5234,59 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="13"/>
       <c r="E41" s="11"/>
       <c r="F41" s="14" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="11" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="C42" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D42" s="13" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="13"/>
       <c r="E43" s="11"/>
       <c r="F43" s="14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="16" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="D44" s="13" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="14"/>
@@ -5119,12 +5294,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="16" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="C45" s="12" t="s">
+        <v>129</v>
+      </c>
       <c r="D45" s="13" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="14"/>
@@ -5132,27 +5309,31 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="D46" s="13" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="11" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="C47" s="12" t="s">
+        <v>135</v>
+      </c>
       <c r="D47" s="13" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="14"/>
@@ -5160,42 +5341,46 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="11" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="C48" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="D48" s="13" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:7">
       <c r="A49" s="25" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
       <c r="D49" s="27" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="11" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="D50" s="13" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="14"/>
@@ -5203,12 +5388,12 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="13" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="14"/>
@@ -5216,12 +5401,14 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="11" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="D52" s="13" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="14"/>
@@ -5229,12 +5416,12 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="11" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="13" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="14"/>
@@ -5242,12 +5429,14 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="D54" s="13" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="14"/>
@@ -5255,27 +5444,31 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="11" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="D55" s="13" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="14" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="11" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="12" t="s">
+        <v>160</v>
+      </c>
       <c r="D56" s="13" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="14"/>
@@ -5283,12 +5476,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="11" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="C57" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="D57" s="13" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="14"/>
@@ -5296,55 +5491,59 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="11" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="11" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="11" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="D60" s="13" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="11" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="C61" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="D61" s="13" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="14"/>
@@ -5352,27 +5551,31 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="11" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="12" t="s">
+        <v>176</v>
+      </c>
       <c r="D62" s="13" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="11" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="C63" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="D63" s="13" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="14"/>
@@ -5380,57 +5583,61 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="11" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="16" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="C65" s="12" t="s">
+        <v>186</v>
+      </c>
       <c r="D65" s="13" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="11" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="D66" s="13" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="14" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G66" s="15"/>
     </row>
     <row r="67" s="3" customFormat="1" spans="1:7">
       <c r="A67" s="11" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="13" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="31"/>
@@ -5438,38 +5645,40 @@
     </row>
     <row r="68" s="3" customFormat="1" spans="1:7">
       <c r="A68" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
       <c r="E68" s="11" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="13"/>
       <c r="E69" s="11"/>
       <c r="F69" s="14" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="11" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="D70" s="13" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="14"/>
@@ -5477,72 +5686,78 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="11" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="D71" s="13" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="11" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="11" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
+      <c r="C73" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="D73" s="13" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="11" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="C74" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="D74" s="13" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="11" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="13" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="14"/>
@@ -5550,12 +5765,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="11" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="C76" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="D76" s="13" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="14"/>
@@ -5563,12 +5780,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="11" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
+      <c r="C77" s="12" t="s">
+        <v>219</v>
+      </c>
       <c r="D77" s="13" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="14"/>
@@ -5576,12 +5795,14 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="11" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
+      <c r="C78" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="D78" s="13" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="14"/>
@@ -5589,12 +5810,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="11" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
+      <c r="C79" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="D79" s="13" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="14"/>
@@ -5602,12 +5825,12 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="11" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="14"/>
@@ -5615,12 +5838,14 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="11" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
+      <c r="C81" s="12" t="s">
+        <v>229</v>
+      </c>
       <c r="D81" s="13" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="14"/>
@@ -5628,12 +5853,14 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="11" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
+      <c r="C82" s="12" t="s">
+        <v>232</v>
+      </c>
       <c r="D82" s="13" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="14"/>
@@ -5641,12 +5868,12 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="11" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="13" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="14"/>
@@ -5654,27 +5881,29 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="11" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
+      <c r="C84" s="12" t="s">
+        <v>237</v>
+      </c>
       <c r="D84" s="13" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="13" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
       <c r="D85" s="13" t="s">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="21"/>
@@ -5682,23 +5911,25 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
       <c r="D86" s="13"/>
       <c r="E86" s="33" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="11" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
+      <c r="C87" s="12" t="s">
+        <v>243</v>
+      </c>
       <c r="D87" s="13"/>
       <c r="E87" s="11"/>
       <c r="F87" s="14"/>
@@ -5706,27 +5937,29 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="11" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="11" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
+      <c r="C89" s="12" t="s">
+        <v>248</v>
+      </c>
       <c r="D89" s="13" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="14"/>
@@ -5734,51 +5967,55 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13"/>
       <c r="E90" s="16" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="F90" s="14"/>
       <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
       <c r="E91" s="11" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="11" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
+      <c r="C92" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="D92" s="13"/>
       <c r="E92" s="11" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="11" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
+      <c r="C93" s="12" t="s">
+        <v>256</v>
+      </c>
       <c r="D93" s="13" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="14"/>
@@ -5786,42 +6023,42 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="13" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
       <c r="D94" s="13" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="F94" s="21"/>
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="11" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="13" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="15"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="11" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="13" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="14"/>
@@ -5829,12 +6066,14 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="11" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
+      <c r="C97" s="12" t="s">
+        <v>267</v>
+      </c>
       <c r="D97" s="13" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="14"/>
@@ -5842,27 +6081,27 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="11" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
+      <c r="C98" s="34"/>
       <c r="D98" s="13" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="11" t="s">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="13" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="14"/>
@@ -5870,12 +6109,12 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="11" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="13" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="14"/>
@@ -5883,29 +6122,29 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="11" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="13" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="11" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="14"/>
@@ -5913,12 +6152,12 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="11" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="13" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="14"/>
@@ -5926,12 +6165,12 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="11" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="14"/>
@@ -5939,12 +6178,12 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="11" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="13" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="14"/>
@@ -5952,12 +6191,12 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="11" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="14"/>
@@ -5965,59 +6204,59 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="11" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="13" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="11" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="13" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="11" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="13" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="11" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="14"/>
@@ -6025,27 +6264,27 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="11" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="13" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="11" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="14"/>
@@ -6053,29 +6292,29 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="11" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="13" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="11" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="13" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="14"/>
@@ -6083,72 +6322,72 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="11" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="13" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="11" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="13" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="13"/>
       <c r="E117" s="11"/>
       <c r="F117" s="14" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="11" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="11" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="13" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="14"/>
@@ -6156,27 +6395,27 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="11" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="13" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="11" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="13" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="14"/>
@@ -6184,27 +6423,27 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="11" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="13" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="14" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="25" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="26"/>
       <c r="D123" s="13" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="14"/>
@@ -6212,12 +6451,12 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="25" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="26"/>
       <c r="D124" s="13" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="14"/>
@@ -6225,39 +6464,39 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="11" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="13" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="14" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="36" t="s">
-        <v>121</v>
+      <c r="A126" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="E126" s="11"/>
-      <c r="G126" s="37"/>
+      <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="11" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
       <c r="D127" s="13" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="29"/>
@@ -6265,12 +6504,12 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="11" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="13" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="29"/>
@@ -6278,42 +6517,42 @@
     </row>
     <row r="129" ht="27" spans="1:7">
       <c r="A129" s="11" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
       <c r="D129" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="E129" s="38" t="s">
-        <v>294</v>
+        <v>337</v>
+      </c>
+      <c r="E129" s="39" t="s">
+        <v>338</v>
       </c>
       <c r="F129" s="29"/>
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="19" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="F130" s="29"/>
       <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="19" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="13" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="29"/>
@@ -6321,12 +6560,12 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="11" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
       <c r="D132" s="13" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="29"/>
@@ -6334,12 +6573,12 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="11" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
       <c r="D133" s="13" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="29"/>
@@ -6347,12 +6586,12 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="16" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
       <c r="D134" s="13" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="29"/>
@@ -6360,12 +6599,12 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="11" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
       <c r="D135" s="13" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="29"/>
@@ -6373,29 +6612,29 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="11" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
       <c r="D136" s="13" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="G136" s="15"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="11" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
       <c r="D137" s="13" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="14"/>
@@ -6403,12 +6642,12 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="16" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
       <c r="D138" s="13" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="14"/>
@@ -6416,44 +6655,44 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="16" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
       <c r="D139" s="13" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="11" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="13" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="11" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="13" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="14"/>
@@ -6461,25 +6700,25 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
       <c r="D142" s="13"/>
       <c r="E142" s="11"/>
       <c r="F142" s="14" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="11" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
       <c r="D143" s="13" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="14"/>
@@ -6487,132 +6726,132 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="11" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="13" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="14"/>
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="39" t="s">
-        <v>327</v>
+      <c r="A145" s="40" t="s">
+        <v>371</v>
       </c>
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
-      <c r="D145" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E145" s="40"/>
-      <c r="F145" s="41"/>
-      <c r="G145" s="40"/>
+      <c r="D145" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="E145" s="41"/>
+      <c r="F145" s="42"/>
+      <c r="G145" s="41"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="11" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="13" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="15"/>
     </row>
     <row r="147" ht="27" spans="1:7">
-      <c r="A147" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="B147" s="43"/>
-      <c r="C147" s="43"/>
+      <c r="A147" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B147" s="44"/>
+      <c r="C147" s="44"/>
       <c r="D147" s="13" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="B148" s="43"/>
-      <c r="C148" s="43"/>
+      <c r="A148" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
       <c r="D148" s="13" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="F148" s="14"/>
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="16" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
       <c r="D149" s="13" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="G149" s="15"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="11" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
       <c r="D150" s="13" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="15"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="16" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
       <c r="D151" s="13" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="15"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="11" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
       <c r="D152" s="13" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="14"/>
@@ -6620,57 +6859,57 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="11" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="13" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="E153" s="11"/>
       <c r="F153" s="14" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="G153" s="15"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="11" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
       <c r="D154" s="13" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="11" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="13" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="F155" s="14"/>
       <c r="G155" s="15"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="11" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
       <c r="D156" s="13" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="E156" s="11"/>
       <c r="F156" s="14"/>
@@ -6678,12 +6917,12 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="11" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
       <c r="D157" s="13" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="14"/>
@@ -6691,59 +6930,59 @@
     </row>
     <row r="158" s="4" customFormat="1" spans="1:7">
       <c r="A158" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="B158" s="44"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="45" t="s">
-        <v>358</v>
+        <v>401</v>
+      </c>
+      <c r="B158" s="45"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="46" t="s">
+        <v>402</v>
       </c>
       <c r="E158" s="28" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="F158" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="G158" s="46"/>
+        <v>404</v>
+      </c>
+      <c r="G158" s="47"/>
     </row>
     <row r="159" s="4" customFormat="1" spans="1:7">
       <c r="A159" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="B159" s="44"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="45" t="s">
-        <v>362</v>
+        <v>405</v>
+      </c>
+      <c r="B159" s="45"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="46" t="s">
+        <v>406</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="F159" s="29"/>
-      <c r="G159" s="46"/>
+      <c r="G159" s="47"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:7">
       <c r="A160" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="B160" s="44"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="45" t="s">
-        <v>365</v>
+        <v>408</v>
+      </c>
+      <c r="B160" s="45"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="46" t="s">
+        <v>409</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="F160" s="29"/>
-      <c r="G160" s="46"/>
+      <c r="G160" s="47"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="11" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
       <c r="D161" s="13" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="14"/>
@@ -6751,12 +6990,12 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="16" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
       <c r="D162" s="13" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="E162" s="11"/>
       <c r="F162" s="14"/>
@@ -6764,27 +7003,27 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="11" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
       <c r="D163" s="13" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="11" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
       <c r="D164" s="13" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="E164" s="11"/>
       <c r="F164" s="14"/>
@@ -6792,12 +7031,12 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="11" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
       <c r="D165" s="13" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="E165" s="11"/>
       <c r="F165" s="14"/>
@@ -6805,27 +7044,27 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="11" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
       <c r="D166" s="13" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="11" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
       <c r="D167" s="13" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="E167" s="11"/>
       <c r="F167" s="14"/>
@@ -6833,12 +7072,12 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="16" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
       <c r="D168" s="13" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="E168" s="11"/>
       <c r="F168" s="14"/>
@@ -6846,12 +7085,12 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="11" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
       <c r="D169" s="13" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="E169" s="11"/>
       <c r="F169" s="14"/>
@@ -6859,12 +7098,12 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="16" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
       <c r="D170" s="13" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="E170" s="11"/>
       <c r="F170" s="14"/>
@@ -6872,12 +7111,12 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="11" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
       <c r="D171" s="13" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="14"/>
@@ -6885,12 +7124,12 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="11" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
       <c r="D172" s="13" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="E172" s="11"/>
       <c r="F172" s="14"/>
@@ -6898,76 +7137,76 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="11" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
       <c r="D173" s="13" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="G173" s="15"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="11" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
       <c r="D174" s="13" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="15"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="16" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
       <c r="D175" s="13" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="15"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="11" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="13" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="G176" s="15"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="11" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
       <c r="D177" s="13" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="E177" s="11"/>
       <c r="F177" s="14"/>
@@ -6975,12 +7214,12 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="11" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
       <c r="D178" s="13" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="E178" s="11"/>
       <c r="F178" s="14"/>
@@ -6988,12 +7227,12 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="16" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="13" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="E179" s="11"/>
       <c r="F179" s="14"/>
@@ -7001,29 +7240,29 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="11" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
       <c r="D180" s="13" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="G180" s="15"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="11" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
       <c r="D181" s="13" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="E181" s="11"/>
       <c r="F181" s="14"/>
@@ -7031,57 +7270,57 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="11" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
       <c r="D182" s="13" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="14" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="G182" s="15"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="11" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
       <c r="D183" s="13" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="15"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="11" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
       <c r="D184" s="13" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="13" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="B185" s="32"/>
       <c r="C185" s="32"/>
       <c r="D185" s="13" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="21"/>
@@ -7089,117 +7328,117 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="11" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
       <c r="D186" s="13" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="F186" s="14"/>
       <c r="G186" s="15"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="11" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
       <c r="D187" s="13" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="F187" s="14"/>
       <c r="G187" s="15"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="16" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
       <c r="D188" s="13" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="F188" s="14"/>
       <c r="G188" s="15"/>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:7">
       <c r="A189" s="28" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="B189" s="26"/>
       <c r="C189" s="26"/>
       <c r="D189" s="27" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="30"/>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:7">
       <c r="A190" s="25" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="B190" s="26"/>
       <c r="C190" s="26"/>
       <c r="D190" s="27" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="30"/>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:7">
       <c r="A191" s="25" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="B191" s="26"/>
       <c r="C191" s="26"/>
       <c r="D191" s="27" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="F191" s="29" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="G191" s="30"/>
     </row>
     <row r="192" s="2" customFormat="1" spans="1:7">
       <c r="A192" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B192" s="26"/>
       <c r="C192" s="26"/>
       <c r="D192" s="27"/>
       <c r="E192" s="25" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="F192" s="29"/>
       <c r="G192" s="30"/>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:7">
       <c r="A193" s="25" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="B193" s="26"/>
       <c r="C193" s="26"/>
       <c r="D193" s="27" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="E193" s="25"/>
       <c r="F193" s="29"/>
@@ -7207,44 +7446,44 @@
     </row>
     <row r="194" s="2" customFormat="1" spans="1:7">
       <c r="A194" s="25" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="B194" s="26"/>
       <c r="C194" s="26"/>
       <c r="D194" s="27" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="F194" s="29"/>
       <c r="G194" s="30"/>
     </row>
     <row r="195" s="2" customFormat="1" spans="1:7">
       <c r="A195" s="28" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="B195" s="26"/>
       <c r="C195" s="26"/>
       <c r="D195" s="27" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="G195" s="30"/>
     </row>
     <row r="196" s="2" customFormat="1" spans="1:7">
       <c r="A196" s="28" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="B196" s="26"/>
       <c r="C196" s="26"/>
       <c r="D196" s="27" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="E196" s="25"/>
       <c r="F196" s="29"/>
@@ -7252,27 +7491,27 @@
     </row>
     <row r="197" s="2" customFormat="1" spans="1:7">
       <c r="A197" s="28" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="B197" s="26"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="F197" s="29"/>
       <c r="G197" s="30"/>
     </row>
     <row r="198" s="2" customFormat="1" spans="1:7">
       <c r="A198" s="25" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="B198" s="26"/>
       <c r="C198" s="26"/>
       <c r="D198" s="27" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="E198" s="25"/>
       <c r="F198" s="29"/>
@@ -7280,25 +7519,25 @@
     </row>
     <row r="199" s="2" customFormat="1" spans="1:7">
       <c r="A199" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B199" s="26"/>
       <c r="C199" s="26"/>
       <c r="D199" s="27"/>
       <c r="E199" s="25" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="F199" s="29"/>
       <c r="G199" s="30"/>
     </row>
     <row r="200" s="2" customFormat="1" spans="1:7">
       <c r="A200" s="28" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="B200" s="26"/>
       <c r="C200" s="26"/>
       <c r="D200" s="27" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="E200" s="25"/>
       <c r="F200" s="29"/>
@@ -7306,40 +7545,40 @@
     </row>
     <row r="201" s="2" customFormat="1" spans="1:7">
       <c r="A201" s="28" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="B201" s="26"/>
       <c r="C201" s="26"/>
       <c r="D201" s="27" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="E201" s="28" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="F201" s="29"/>
       <c r="G201" s="30"/>
     </row>
     <row r="202" s="2" customFormat="1" spans="1:7">
       <c r="A202" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B202" s="26"/>
       <c r="C202" s="26"/>
       <c r="D202" s="27"/>
       <c r="E202" s="16" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="F202" s="29"/>
       <c r="G202" s="30"/>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:7">
       <c r="A203" s="25" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="B203" s="26"/>
       <c r="C203" s="26"/>
       <c r="D203" s="27" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="E203" s="25"/>
       <c r="F203" s="29"/>
@@ -7347,7 +7586,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="25" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="B204" s="26"/>
       <c r="C204" s="26"/>
@@ -7358,70 +7597,70 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B205" s="26"/>
       <c r="C205" s="26"/>
       <c r="D205" s="27"/>
       <c r="E205" s="25" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="30"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="11" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
       <c r="D206" s="13" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="F206" s="14"/>
       <c r="G206" s="15"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="11" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
       <c r="D207" s="13" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="F207" s="14"/>
       <c r="G207" s="15"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="11" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
       <c r="D208" s="13" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="F208" s="14"/>
       <c r="G208" s="15"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="16" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
       <c r="D209" s="13" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="E209" s="11"/>
       <c r="F209" s="14"/>
@@ -7429,74 +7668,74 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="11" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
       <c r="D210" s="13" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="G210" s="15"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="11" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
       <c r="D211" s="13" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="F211" s="14"/>
       <c r="G211" s="15"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="11" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
       <c r="D212" s="13" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="F212" s="14"/>
       <c r="G212" s="15"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="11" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
       <c r="D213" s="13" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="F213" s="14"/>
       <c r="G213" s="15"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="11" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
       <c r="D214" s="13" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="E214" s="11"/>
       <c r="F214" s="14"/>
@@ -7504,12 +7743,12 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="11" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
       <c r="D215" s="13" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="E215" s="11"/>
       <c r="F215" s="14"/>
@@ -7517,38 +7756,38 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
       <c r="D216" s="13"/>
       <c r="E216" s="11" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="F216" s="14"/>
       <c r="G216" s="15"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
       <c r="D217" s="13"/>
       <c r="E217" s="11" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="F217" s="14"/>
       <c r="G217" s="15"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="11" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
       <c r="D218" s="13" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="E218" s="11"/>
       <c r="F218" s="14"/>
@@ -7556,57 +7795,57 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="11" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
       <c r="D219" s="13" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="F219" s="14"/>
       <c r="G219" s="15"/>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:7">
       <c r="A220" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="B220" s="47"/>
-      <c r="C220" s="47"/>
+        <v>531</v>
+      </c>
+      <c r="B220" s="48"/>
+      <c r="C220" s="48"/>
       <c r="D220" s="27" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="F220" s="45" t="s">
-        <v>489</v>
+        <v>533</v>
+      </c>
+      <c r="F220" s="46" t="s">
+        <v>533</v>
       </c>
       <c r="G220" s="27"/>
     </row>
     <row r="221" s="2" customFormat="1" spans="1:7">
       <c r="A221" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B221" s="47"/>
-      <c r="C221" s="47"/>
+        <v>66</v>
+      </c>
+      <c r="B221" s="48"/>
+      <c r="C221" s="48"/>
       <c r="D221" s="27"/>
-      <c r="E221" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="F221" s="45"/>
+      <c r="E221" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="F221" s="46"/>
       <c r="G221" s="27"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="11" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
       <c r="D222" s="13" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="E222" s="11"/>
       <c r="F222" s="14"/>
@@ -7614,12 +7853,12 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="16" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
       <c r="D223" s="13" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="E223" s="11"/>
       <c r="F223" s="14"/>

--- a/Excels/产品功能列表20180503.xlsx
+++ b/Excels/产品功能列表20180503.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10695" windowHeight="9930" tabRatio="361"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="361"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586">
   <si>
     <t>Medeli英文</t>
   </si>
@@ -2394,6 +2394,9 @@
     <t>Melody</t>
   </si>
   <si>
+    <t>melody</t>
+  </si>
+  <si>
     <t>旋律</t>
   </si>
   <si>
@@ -2412,12 +2415,18 @@
     <t xml:space="preserve">Metronome </t>
   </si>
   <si>
+    <t xml:space="preserve">metronome </t>
+  </si>
+  <si>
     <t>节拍器</t>
   </si>
   <si>
     <t>Microphone</t>
   </si>
   <si>
+    <t>microphone</t>
+  </si>
+  <si>
     <t>麦克风</t>
   </si>
   <si>
@@ -2448,6 +2457,9 @@
     <t>Mixer</t>
   </si>
   <si>
+    <t>mixer</t>
+  </si>
+  <si>
     <t>调音台</t>
   </si>
   <si>
@@ -2457,12 +2469,18 @@
     <t>Modulation</t>
   </si>
   <si>
+    <t>modulation</t>
+  </si>
+  <si>
     <t>颤音</t>
   </si>
   <si>
     <t>Mono</t>
   </si>
   <si>
+    <t>mono</t>
+  </si>
+  <si>
     <t>单音</t>
   </si>
   <si>
@@ -2490,6 +2508,9 @@
     <t>Octave</t>
   </si>
   <si>
+    <t>octave</t>
+  </si>
+  <si>
     <t>八度</t>
   </si>
   <si>
@@ -2502,6 +2523,9 @@
     <t>Overdrive</t>
   </si>
   <si>
+    <t>overdrive</t>
+  </si>
+  <si>
     <t>过载效果</t>
   </si>
   <si>
@@ -2541,6 +2565,9 @@
     <t>Pan</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>声像</t>
   </si>
   <si>
@@ -2562,6 +2589,9 @@
     <t>Pattern</t>
   </si>
   <si>
+    <t>pattern</t>
+  </si>
+  <si>
     <t>模板</t>
   </si>
   <si>
@@ -2574,6 +2604,9 @@
     <t>Pedal</t>
   </si>
   <si>
+    <t>pedal</t>
+  </si>
+  <si>
     <t>踏板</t>
   </si>
   <si>
@@ -2583,16 +2616,25 @@
     <t>Performance Assistant (Perform.)</t>
   </si>
   <si>
+    <t>performance</t>
+  </si>
+  <si>
     <t>演奏帮助</t>
   </si>
   <si>
     <t>Perform.H.</t>
   </si>
   <si>
+    <t>perform</t>
+  </si>
+  <si>
     <t>演奏帮助.高</t>
   </si>
   <si>
     <t>Polyphony（Max.)</t>
+  </si>
+  <si>
+    <t>polyphony</t>
   </si>
   <si>
     <t>复音数（最大）</t>
@@ -2678,6 +2720,9 @@
     <t>Phrase</t>
   </si>
   <si>
+    <t>phrase</t>
+  </si>
+  <si>
     <t>乐句</t>
   </si>
   <si>
@@ -2690,12 +2735,18 @@
     <t>Pilot Production (PP)</t>
   </si>
   <si>
+    <t>pilot</t>
+  </si>
+  <si>
     <t>试产</t>
   </si>
   <si>
     <t>Pitch</t>
   </si>
   <si>
+    <t>pitch</t>
+  </si>
+  <si>
     <t>音高</t>
   </si>
   <si>
@@ -2717,12 +2768,18 @@
     <t>Polarity</t>
   </si>
   <si>
+    <t>polarity</t>
+  </si>
+  <si>
     <t>极性</t>
   </si>
   <si>
     <t>Portamento</t>
   </si>
   <si>
+    <t>portamento</t>
+  </si>
+  <si>
     <t>滑音（效果）</t>
   </si>
   <si>
@@ -2759,6 +2816,9 @@
     <t>Prototype</t>
   </si>
   <si>
+    <t>prototype</t>
+  </si>
+  <si>
     <t>原型</t>
   </si>
   <si>
@@ -2771,6 +2831,9 @@
     <t>Registration Memory（Performance Memory)</t>
   </si>
   <si>
+    <t>registration</t>
+  </si>
+  <si>
     <t>注册记忆 (演奏记忆）</t>
   </si>
   <si>
@@ -2780,15 +2843,24 @@
     <t>Registration Sequence</t>
   </si>
   <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>释音/音尾</t>
+  </si>
+  <si>
     <t xml:space="preserve">Release </t>
   </si>
   <si>
-    <t>释音/音尾</t>
-  </si>
-  <si>
     <t>Reverb</t>
   </si>
   <si>
+    <t>reverb</t>
+  </si>
+  <si>
     <t>混响</t>
   </si>
   <si>
@@ -2825,6 +2897,9 @@
     <t xml:space="preserve">Rhythm </t>
   </si>
   <si>
+    <t>rhythm</t>
+  </si>
+  <si>
     <t>打击乐</t>
   </si>
   <si>
@@ -2837,18 +2912,27 @@
     <t>Sampling</t>
   </si>
   <si>
+    <t>sampling</t>
+  </si>
+  <si>
     <t>采样</t>
   </si>
   <si>
     <t>Sample rate</t>
   </si>
   <si>
+    <t>sample</t>
+  </si>
+  <si>
     <t>采样率</t>
   </si>
   <si>
     <t>Scale</t>
   </si>
   <si>
+    <t>scale</t>
+  </si>
+  <si>
     <t>古典音律</t>
   </si>
   <si>
@@ -2879,18 +2963,27 @@
     <t>Score</t>
   </si>
   <si>
+    <t>score</t>
+  </si>
+  <si>
     <t>乐谱</t>
   </si>
   <si>
     <t>Scratching (scrubbing)</t>
   </si>
   <si>
+    <t>scratching</t>
+  </si>
+  <si>
     <t>（DJ）搓碟</t>
   </si>
   <si>
     <t>Section</t>
   </si>
   <si>
+    <t>section</t>
+  </si>
+  <si>
     <t>段落</t>
   </si>
   <si>
@@ -2921,6 +3014,9 @@
     <t>Sostenuto pedal</t>
   </si>
   <si>
+    <t>sostenuto</t>
+  </si>
+  <si>
     <t>后延音踏板</t>
   </si>
   <si>
@@ -2933,6 +3029,9 @@
     <t>Specifications</t>
   </si>
   <si>
+    <t>specifications</t>
+  </si>
+  <si>
     <t>规格</t>
   </si>
   <si>
@@ -2987,18 +3086,27 @@
     <t>Store</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>存储</t>
   </si>
   <si>
     <t>Surround（rubber/foam）</t>
   </si>
   <si>
+    <t>surround</t>
+  </si>
+  <si>
     <t>喇叭边 (橡胶/泡沫）</t>
   </si>
   <si>
     <t>Sustain</t>
   </si>
   <si>
+    <t>sustain</t>
+  </si>
+  <si>
     <t>延音</t>
   </si>
   <si>
@@ -3038,12 +3146,18 @@
     <t>Tempo</t>
   </si>
   <si>
+    <t>tempo</t>
+  </si>
+  <si>
     <t>速度</t>
   </si>
   <si>
     <t>Tap (Tempo)</t>
   </si>
   <si>
+    <t>tap</t>
+  </si>
+  <si>
     <t>击拍设速</t>
   </si>
   <si>
@@ -3053,12 +3167,18 @@
     <t>Time signature</t>
   </si>
   <si>
+    <t>signature</t>
+  </si>
+  <si>
     <t>拍号</t>
   </si>
   <si>
     <t>Tone Generator</t>
   </si>
   <si>
+    <t>generator</t>
+  </si>
+  <si>
     <t>音源</t>
   </si>
   <si>
@@ -3068,6 +3188,9 @@
     <t>Touch</t>
   </si>
   <si>
+    <t>touch</t>
+  </si>
+  <si>
     <t>力度</t>
   </si>
   <si>
@@ -3095,18 +3218,27 @@
     <t>Transpose</t>
   </si>
   <si>
+    <t>transpose</t>
+  </si>
+  <si>
     <t>移调</t>
   </si>
   <si>
     <t>Tremelo</t>
   </si>
   <si>
+    <t>tremelo</t>
+  </si>
+  <si>
     <t>震音</t>
   </si>
   <si>
     <t>Tune</t>
   </si>
   <si>
+    <t>tune</t>
+  </si>
+  <si>
     <t>音调</t>
   </si>
   <si>
@@ -3125,6 +3257,9 @@
     <t>Tweeter</t>
   </si>
   <si>
+    <t>tweeter</t>
+  </si>
+  <si>
     <t>高音喇叭</t>
   </si>
   <si>
@@ -3179,6 +3314,9 @@
     <t>Vibrato</t>
   </si>
   <si>
+    <t>vibrato</t>
+  </si>
+  <si>
     <t>Voice</t>
   </si>
   <si>
@@ -3255,6 +3393,9 @@
   </si>
   <si>
     <t>Woofer</t>
+  </si>
+  <si>
+    <t>woofer</t>
   </si>
   <si>
     <t>低音喇叭</t>
@@ -3266,9 +3407,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -3325,6 +3466,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3342,29 +3512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3378,31 +3526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3416,16 +3540,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3440,7 +3573,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3448,7 +3589,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3488,7 +3629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3503,13 +3644,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3521,13 +3710,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3545,67 +3782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3617,61 +3794,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3834,15 +3969,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3858,17 +3984,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3876,8 +3996,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3906,17 +4037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3931,6 +4051,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3939,10 +4074,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3951,133 +4086,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4184,7 +4319,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -4583,11 +4718,11 @@
   <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6084,9 +6219,11 @@
         <v>269</v>
       </c>
       <c r="B98" s="12"/>
-      <c r="C98" s="34"/>
+      <c r="C98" s="34" t="s">
+        <v>270</v>
+      </c>
       <c r="D98" s="13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>269</v>
@@ -6096,12 +6233,14 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
+      <c r="C99" s="34" t="s">
+        <v>270</v>
+      </c>
       <c r="D99" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="14"/>
@@ -6109,12 +6248,14 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
+      <c r="C100" s="34" t="s">
+        <v>270</v>
+      </c>
       <c r="D100" s="13" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="14"/>
@@ -6122,29 +6263,33 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
+      <c r="C101" s="12" t="s">
+        <v>277</v>
+      </c>
       <c r="D101" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E101" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="F101" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
+      <c r="C102" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="D102" s="13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="14"/>
@@ -6152,12 +6297,12 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="13" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="14"/>
@@ -6165,12 +6310,12 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="14"/>
@@ -6178,12 +6323,12 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="14"/>
@@ -6191,12 +6336,12 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="14"/>
@@ -6204,59 +6349,65 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
+      <c r="C107" s="12" t="s">
+        <v>291</v>
+      </c>
       <c r="D107" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
+      <c r="C108" s="12" t="s">
+        <v>295</v>
+      </c>
       <c r="D108" s="13" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
+      <c r="C109" s="12" t="s">
+        <v>298</v>
+      </c>
       <c r="D109" s="13" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="14"/>
@@ -6264,27 +6415,27 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="11" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="11" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="14"/>
@@ -6292,29 +6443,33 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="11" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
+      <c r="C113" s="12" t="s">
+        <v>308</v>
+      </c>
       <c r="D113" s="13" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="11" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
+      <c r="C114" s="12" t="s">
+        <v>313</v>
+      </c>
       <c r="D114" s="13" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="14"/>
@@ -6322,32 +6477,32 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="11" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="13" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F115" s="14" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="11" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="13" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="15"/>
@@ -6361,33 +6516,33 @@
       <c r="D117" s="13"/>
       <c r="E117" s="11"/>
       <c r="F117" s="14" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="11" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="11" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="13" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="14"/>
@@ -6395,27 +6550,31 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="11" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
+      <c r="C120" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="D120" s="13" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="11" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
+      <c r="C121" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="D121" s="13" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="14"/>
@@ -6423,27 +6582,31 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
+      <c r="C122" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="D122" s="13" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="14" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="25" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
+      <c r="C123" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="D123" s="13" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="14"/>
@@ -6451,12 +6614,12 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="25" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="26"/>
       <c r="D124" s="13" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="14"/>
@@ -6464,25 +6627,29 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="11" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
+      <c r="C125" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="D125" s="13" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="14" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="35" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B126" s="36"/>
-      <c r="C126" s="36"/>
+      <c r="C126" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="D126" s="37" t="s">
         <v>139</v>
       </c>
@@ -6491,12 +6658,14 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="11" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
+      <c r="C127" s="12" t="s">
+        <v>344</v>
+      </c>
       <c r="D127" s="13" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="29"/>
@@ -6504,12 +6673,14 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="11" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
+      <c r="C128" s="12" t="s">
+        <v>347</v>
+      </c>
       <c r="D128" s="13" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="29"/>
@@ -6517,42 +6688,44 @@
     </row>
     <row r="129" ht="27" spans="1:7">
       <c r="A129" s="11" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
+      <c r="C129" s="12" t="s">
+        <v>350</v>
+      </c>
       <c r="D129" s="13" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="E129" s="39" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="F129" s="29"/>
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="19" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F130" s="29"/>
       <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="19" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
       <c r="D131" s="13" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="29"/>
@@ -6560,12 +6733,14 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="11" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
+      <c r="C132" s="12" t="s">
+        <v>359</v>
+      </c>
       <c r="D132" s="13" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="29"/>
@@ -6573,12 +6748,12 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="11" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
       <c r="D133" s="13" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="29"/>
@@ -6586,12 +6761,14 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="16" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
+      <c r="C134" s="12" t="s">
+        <v>364</v>
+      </c>
       <c r="D134" s="13" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="29"/>
@@ -6599,12 +6776,14 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="11" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
+      <c r="C135" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="D135" s="13" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="29"/>
@@ -6612,18 +6791,20 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="11" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
+      <c r="C136" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="D136" s="13" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="G136" s="15"/>
     </row>
@@ -6632,9 +6813,11 @@
         <v>102</v>
       </c>
       <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
+      <c r="C137" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="D137" s="13" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="14"/>
@@ -6642,12 +6825,14 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="16" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
+      <c r="C138" s="12" t="s">
+        <v>375</v>
+      </c>
       <c r="D138" s="13" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="14"/>
@@ -6655,44 +6840,46 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="16" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
+      <c r="C139" s="12" t="s">
+        <v>378</v>
+      </c>
       <c r="D139" s="13" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="11" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="13" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="11" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
       <c r="D141" s="13" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="14"/>
@@ -6707,18 +6894,18 @@
       <c r="D142" s="13"/>
       <c r="E142" s="11"/>
       <c r="F142" s="14" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="11" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
       <c r="D143" s="13" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="14"/>
@@ -6726,12 +6913,12 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="11" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
       <c r="D144" s="13" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="14"/>
@@ -6739,12 +6926,14 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="40" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
+      <c r="C145" s="22" t="s">
+        <v>391</v>
+      </c>
       <c r="D145" s="41" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="E145" s="41"/>
       <c r="F145" s="42"/>
@@ -6752,106 +6941,118 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="11" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
       <c r="D146" s="13" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="15"/>
     </row>
     <row r="147" ht="27" spans="1:7">
       <c r="A147" s="43" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B147" s="44"/>
-      <c r="C147" s="44"/>
+      <c r="C147" s="44" t="s">
+        <v>396</v>
+      </c>
       <c r="D147" s="13" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="43" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B148" s="44"/>
-      <c r="C148" s="44"/>
+      <c r="C148" s="44" t="s">
+        <v>401</v>
+      </c>
       <c r="D148" s="13" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="F148" s="14"/>
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="16" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
+      <c r="C149" s="12" t="s">
+        <v>405</v>
+      </c>
       <c r="D149" s="13" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="G149" s="15"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="11" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
+      <c r="C150" s="12" t="s">
+        <v>405</v>
+      </c>
       <c r="D150" s="13" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="15"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="16" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
+      <c r="C151" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="D151" s="13" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="15"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="11" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
+      <c r="C152" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="D152" s="13" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="E152" s="11"/>
       <c r="F152" s="14"/>
@@ -6859,57 +7060,61 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="11" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
       <c r="D153" s="13" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="E153" s="11"/>
       <c r="F153" s="14" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="G153" s="15"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="11" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
+      <c r="C154" s="12" t="s">
+        <v>418</v>
+      </c>
       <c r="D154" s="13" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="11" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
       <c r="D155" s="13" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="F155" s="14"/>
       <c r="G155" s="15"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="11" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
+      <c r="C156" s="12" t="s">
+        <v>423</v>
+      </c>
       <c r="D156" s="13" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="E156" s="11"/>
       <c r="F156" s="14"/>
@@ -6917,12 +7122,14 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="11" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
+      <c r="C157" s="12" t="s">
+        <v>426</v>
+      </c>
       <c r="D157" s="13" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="E157" s="11"/>
       <c r="F157" s="14"/>
@@ -6930,59 +7137,67 @@
     </row>
     <row r="158" s="4" customFormat="1" spans="1:7">
       <c r="A158" s="29" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="B158" s="45"/>
-      <c r="C158" s="45"/>
+      <c r="C158" s="45" t="s">
+        <v>429</v>
+      </c>
       <c r="D158" s="46" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="E158" s="28" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F158" s="29" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="G158" s="47"/>
     </row>
     <row r="159" s="4" customFormat="1" spans="1:7">
       <c r="A159" s="29" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="B159" s="45"/>
-      <c r="C159" s="45"/>
+      <c r="C159" s="45" t="s">
+        <v>429</v>
+      </c>
       <c r="D159" s="46" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="47"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:7">
       <c r="A160" s="29" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="B160" s="45"/>
-      <c r="C160" s="45"/>
+      <c r="C160" s="45" t="s">
+        <v>429</v>
+      </c>
       <c r="D160" s="46" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="F160" s="29"/>
       <c r="G160" s="47"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="11" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
+      <c r="C161" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="D161" s="13" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="14"/>
@@ -6990,12 +7205,14 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="16" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
+      <c r="C162" s="12" t="s">
+        <v>443</v>
+      </c>
       <c r="D162" s="13" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="E162" s="11"/>
       <c r="F162" s="14"/>
@@ -7003,27 +7220,29 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="11" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
+      <c r="C163" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="D163" s="13" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="E163" s="11" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="11" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
       <c r="D164" s="13" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="E164" s="11"/>
       <c r="F164" s="14"/>
@@ -7031,12 +7250,12 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="11" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
       <c r="D165" s="13" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="E165" s="11"/>
       <c r="F165" s="14"/>
@@ -7044,27 +7263,27 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="11" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
       <c r="D166" s="13" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="E166" s="11" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="F166" s="14"/>
       <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="11" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
       <c r="D167" s="13" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="E167" s="11"/>
       <c r="F167" s="14"/>
@@ -7072,12 +7291,14 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="16" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
+      <c r="C168" s="12" t="s">
+        <v>457</v>
+      </c>
       <c r="D168" s="13" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="E168" s="11"/>
       <c r="F168" s="14"/>
@@ -7085,12 +7306,12 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="11" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
       <c r="D169" s="13" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="E169" s="11"/>
       <c r="F169" s="14"/>
@@ -7098,12 +7319,14 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="16" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
+      <c r="C170" s="12" t="s">
+        <v>462</v>
+      </c>
       <c r="D170" s="13" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="E170" s="11"/>
       <c r="F170" s="14"/>
@@ -7111,12 +7334,12 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="11" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
       <c r="D171" s="13" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="E171" s="11"/>
       <c r="F171" s="14"/>
@@ -7124,12 +7347,12 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="11" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
       <c r="D172" s="13" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="E172" s="11"/>
       <c r="F172" s="14"/>
@@ -7137,76 +7360,78 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="11" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
       <c r="D173" s="13" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="G173" s="15"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="11" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
       <c r="D174" s="13" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="F174" s="14"/>
       <c r="G174" s="15"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="16" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
+      <c r="C175" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="D175" s="13" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="F175" s="14"/>
       <c r="G175" s="15"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="11" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
       <c r="D176" s="13" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="G176" s="15"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="11" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
       <c r="D177" s="13" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="E177" s="11"/>
       <c r="F177" s="14"/>
@@ -7214,12 +7439,14 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="11" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
+      <c r="C178" s="12" t="s">
+        <v>481</v>
+      </c>
       <c r="D178" s="13" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="E178" s="11"/>
       <c r="F178" s="14"/>
@@ -7227,12 +7454,14 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="16" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
+      <c r="C179" s="12" t="s">
+        <v>484</v>
+      </c>
       <c r="D179" s="13" t="s">
-        <v>450</v>
+        <v>485</v>
       </c>
       <c r="E179" s="11"/>
       <c r="F179" s="14"/>
@@ -7240,29 +7469,33 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="11" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
+      <c r="C180" s="12" t="s">
+        <v>487</v>
+      </c>
       <c r="D180" s="13" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="G180" s="15"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="11" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
+      <c r="C181" s="12" t="s">
+        <v>487</v>
+      </c>
       <c r="D181" s="13" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="E181" s="11"/>
       <c r="F181" s="14"/>
@@ -7270,57 +7503,59 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="11" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="B182" s="12"/>
-      <c r="C182" s="12"/>
+      <c r="C182" s="12" t="s">
+        <v>487</v>
+      </c>
       <c r="D182" s="13" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="E182" s="11"/>
       <c r="F182" s="14" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="G182" s="15"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="11" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
       <c r="D183" s="13" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="E183" s="11" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="15"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="11" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
       <c r="D184" s="13" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="13" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="B185" s="32"/>
       <c r="C185" s="32"/>
       <c r="D185" s="13" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="21"/>
@@ -7328,93 +7563,105 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="11" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="B186" s="12"/>
-      <c r="C186" s="12"/>
+      <c r="C186" s="12" t="s">
+        <v>501</v>
+      </c>
       <c r="D186" s="13" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="F186" s="14"/>
       <c r="G186" s="15"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="11" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
+      <c r="C187" s="12" t="s">
+        <v>504</v>
+      </c>
       <c r="D187" s="13" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>468</v>
+        <v>506</v>
       </c>
       <c r="F187" s="14"/>
       <c r="G187" s="15"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="16" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
+      <c r="C188" s="12" t="s">
+        <v>508</v>
+      </c>
       <c r="D188" s="13" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="F188" s="14"/>
       <c r="G188" s="15"/>
     </row>
     <row r="189" s="2" customFormat="1" spans="1:7">
       <c r="A189" s="28" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
+      <c r="C189" s="26" t="s">
+        <v>511</v>
+      </c>
       <c r="D189" s="27" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="30"/>
     </row>
     <row r="190" s="2" customFormat="1" spans="1:7">
       <c r="A190" s="25" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
+      <c r="C190" s="26" t="s">
+        <v>515</v>
+      </c>
       <c r="D190" s="27" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="30"/>
     </row>
     <row r="191" s="2" customFormat="1" spans="1:7">
       <c r="A191" s="25" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
+      <c r="C191" s="26" t="s">
+        <v>515</v>
+      </c>
       <c r="D191" s="27" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="F191" s="29" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="G191" s="30"/>
     </row>
@@ -7426,19 +7673,19 @@
       <c r="C192" s="26"/>
       <c r="D192" s="27"/>
       <c r="E192" s="25" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="F192" s="29"/>
       <c r="G192" s="30"/>
     </row>
     <row r="193" s="2" customFormat="1" spans="1:7">
       <c r="A193" s="25" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="B193" s="26"/>
       <c r="C193" s="26"/>
       <c r="D193" s="27" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="E193" s="25"/>
       <c r="F193" s="29"/>
@@ -7446,44 +7693,48 @@
     </row>
     <row r="194" s="2" customFormat="1" spans="1:7">
       <c r="A194" s="25" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="B194" s="26"/>
       <c r="C194" s="26"/>
       <c r="D194" s="27" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="F194" s="29"/>
       <c r="G194" s="30"/>
     </row>
     <row r="195" s="2" customFormat="1" spans="1:7">
       <c r="A195" s="28" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
+      <c r="C195" s="26" t="s">
+        <v>525</v>
+      </c>
       <c r="D195" s="27" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="G195" s="30"/>
     </row>
     <row r="196" s="2" customFormat="1" spans="1:7">
       <c r="A196" s="28" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
+      <c r="C196" s="26" t="s">
+        <v>528</v>
+      </c>
       <c r="D196" s="27" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="E196" s="25"/>
       <c r="F196" s="29"/>
@@ -7491,27 +7742,29 @@
     </row>
     <row r="197" s="2" customFormat="1" spans="1:7">
       <c r="A197" s="28" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
+      <c r="C197" s="26" t="s">
+        <v>531</v>
+      </c>
       <c r="D197" s="27" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="F197" s="29"/>
       <c r="G197" s="30"/>
     </row>
     <row r="198" s="2" customFormat="1" spans="1:7">
       <c r="A198" s="25" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="B198" s="26"/>
       <c r="C198" s="26"/>
       <c r="D198" s="27" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="E198" s="25"/>
       <c r="F198" s="29"/>
@@ -7525,19 +7778,21 @@
       <c r="C199" s="26"/>
       <c r="D199" s="27"/>
       <c r="E199" s="25" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="F199" s="29"/>
       <c r="G199" s="30"/>
     </row>
     <row r="200" s="2" customFormat="1" spans="1:7">
       <c r="A200" s="28" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
+      <c r="C200" s="26" t="s">
+        <v>538</v>
+      </c>
       <c r="D200" s="27" t="s">
-        <v>494</v>
+        <v>539</v>
       </c>
       <c r="E200" s="25"/>
       <c r="F200" s="29"/>
@@ -7545,15 +7800,15 @@
     </row>
     <row r="201" s="2" customFormat="1" spans="1:7">
       <c r="A201" s="28" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
       <c r="B201" s="26"/>
       <c r="C201" s="26"/>
       <c r="D201" s="27" t="s">
-        <v>496</v>
+        <v>541</v>
       </c>
       <c r="E201" s="28" t="s">
-        <v>497</v>
+        <v>542</v>
       </c>
       <c r="F201" s="29"/>
       <c r="G201" s="30"/>
@@ -7566,19 +7821,19 @@
       <c r="C202" s="26"/>
       <c r="D202" s="27"/>
       <c r="E202" s="16" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
       <c r="F202" s="29"/>
       <c r="G202" s="30"/>
     </row>
     <row r="203" s="2" customFormat="1" spans="1:7">
       <c r="A203" s="25" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="B203" s="26"/>
       <c r="C203" s="26"/>
       <c r="D203" s="27" t="s">
-        <v>500</v>
+        <v>545</v>
       </c>
       <c r="E203" s="25"/>
       <c r="F203" s="29"/>
@@ -7586,7 +7841,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="25" t="s">
-        <v>501</v>
+        <v>546</v>
       </c>
       <c r="B204" s="26"/>
       <c r="C204" s="26"/>
@@ -7603,64 +7858,66 @@
       <c r="C205" s="26"/>
       <c r="D205" s="27"/>
       <c r="E205" s="25" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="30"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="11" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
       <c r="D206" s="13" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>505</v>
+        <v>550</v>
       </c>
       <c r="F206" s="14"/>
       <c r="G206" s="15"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="11" t="s">
-        <v>506</v>
+        <v>551</v>
       </c>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
       <c r="D207" s="13" t="s">
-        <v>507</v>
+        <v>552</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>506</v>
+        <v>551</v>
       </c>
       <c r="F207" s="14"/>
       <c r="G207" s="15"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="11" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
       <c r="D208" s="13" t="s">
-        <v>509</v>
+        <v>554</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>510</v>
+        <v>555</v>
       </c>
       <c r="F208" s="14"/>
       <c r="G208" s="15"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="16" t="s">
-        <v>511</v>
+        <v>556</v>
       </c>
       <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
+      <c r="C209" s="12" t="s">
+        <v>557</v>
+      </c>
       <c r="D209" s="13" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E209" s="11"/>
       <c r="F209" s="14"/>
@@ -7668,74 +7925,74 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="11" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
       <c r="D210" s="13" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="G210" s="15"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="11" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
       <c r="D211" s="13" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="F211" s="14"/>
       <c r="G211" s="15"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="11" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
       <c r="D212" s="13" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="F212" s="14"/>
       <c r="G212" s="15"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="11" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
       <c r="D213" s="13" t="s">
-        <v>520</v>
+        <v>566</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="F213" s="14"/>
       <c r="G213" s="15"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="11" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
       <c r="D214" s="13" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="E214" s="11"/>
       <c r="F214" s="14"/>
@@ -7743,12 +8000,12 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="11" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
       <c r="D215" s="13" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
       <c r="E215" s="11"/>
       <c r="F215" s="14"/>
@@ -7762,7 +8019,7 @@
       <c r="C216" s="12"/>
       <c r="D216" s="13"/>
       <c r="E216" s="11" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="F216" s="14"/>
       <c r="G216" s="15"/>
@@ -7775,19 +8032,19 @@
       <c r="C217" s="12"/>
       <c r="D217" s="13"/>
       <c r="E217" s="11" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="F217" s="14"/>
       <c r="G217" s="15"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="11" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
       <c r="D218" s="13" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="E218" s="11"/>
       <c r="F218" s="14"/>
@@ -7795,33 +8052,33 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="11" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
       <c r="D219" s="13" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="F219" s="14"/>
       <c r="G219" s="15"/>
     </row>
     <row r="220" s="2" customFormat="1" spans="1:7">
       <c r="A220" s="27" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="B220" s="48"/>
       <c r="C220" s="48"/>
       <c r="D220" s="27" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="F220" s="46" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="G220" s="27"/>
     </row>
@@ -7833,19 +8090,19 @@
       <c r="C221" s="48"/>
       <c r="D221" s="27"/>
       <c r="E221" s="49" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="F221" s="46"/>
       <c r="G221" s="27"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="11" t="s">
-        <v>535</v>
+        <v>581</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
       <c r="D222" s="13" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="E222" s="11"/>
       <c r="F222" s="14"/>
@@ -7853,12 +8110,14 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="16" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
+      <c r="C223" s="12" t="s">
+        <v>584</v>
+      </c>
       <c r="D223" s="13" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="E223" s="11"/>
       <c r="F223" s="14"/>

--- a/Excels/产品功能列表20180503.xlsx
+++ b/Excels/产品功能列表20180503.xlsx
@@ -3408,8 +3408,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -3466,75 +3466,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3558,7 +3492,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3572,9 +3506,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3588,16 +3589,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3605,6 +3598,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3644,13 +3644,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3668,7 +3686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3686,7 +3704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3698,19 +3716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3722,19 +3728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3752,37 +3752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3800,13 +3782,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3818,13 +3812,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3970,6 +3970,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3980,6 +4019,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4001,71 +4066,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4074,10 +4074,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4086,137 +4086,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4317,9 +4317,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -4722,7 +4719,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C224" sqref="C224"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6219,7 +6216,7 @@
         <v>269</v>
       </c>
       <c r="B98" s="12"/>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="26" t="s">
         <v>270</v>
       </c>
       <c r="D98" s="13" t="s">
@@ -6236,7 +6233,7 @@
         <v>272</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="34" t="s">
+      <c r="C99" s="26" t="s">
         <v>270</v>
       </c>
       <c r="D99" s="13" t="s">
@@ -6251,7 +6248,7 @@
         <v>274</v>
       </c>
       <c r="B100" s="12"/>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="26" t="s">
         <v>270</v>
       </c>
       <c r="D100" s="13" t="s">
@@ -6643,18 +6640,18 @@
       <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="35" t="s">
+      <c r="A126" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B126" s="36"/>
+      <c r="B126" s="35"/>
       <c r="C126" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D126" s="37" t="s">
+      <c r="D126" s="36" t="s">
         <v>139</v>
       </c>
       <c r="E126" s="11"/>
-      <c r="G126" s="38"/>
+      <c r="G126" s="37"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="11" t="s">
@@ -6697,7 +6694,7 @@
       <c r="D129" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="E129" s="39" t="s">
+      <c r="E129" s="38" t="s">
         <v>352</v>
       </c>
       <c r="F129" s="29"/>
@@ -6925,19 +6922,19 @@
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="40" t="s">
+      <c r="A145" s="39" t="s">
         <v>390</v>
       </c>
       <c r="B145" s="22"/>
       <c r="C145" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="D145" s="41" t="s">
+      <c r="D145" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="E145" s="41"/>
-      <c r="F145" s="42"/>
-      <c r="G145" s="41"/>
+      <c r="E145" s="40"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="40"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="11" t="s">
@@ -6955,11 +6952,11 @@
       <c r="G146" s="15"/>
     </row>
     <row r="147" ht="27" spans="1:7">
-      <c r="A147" s="43" t="s">
+      <c r="A147" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="B147" s="44"/>
-      <c r="C147" s="44" t="s">
+      <c r="B147" s="43"/>
+      <c r="C147" s="43" t="s">
         <v>396</v>
       </c>
       <c r="D147" s="13" t="s">
@@ -6974,11 +6971,11 @@
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="B148" s="44"/>
-      <c r="C148" s="44" t="s">
+      <c r="B148" s="43"/>
+      <c r="C148" s="43" t="s">
         <v>401</v>
       </c>
       <c r="D148" s="13" t="s">
@@ -7139,11 +7136,11 @@
       <c r="A158" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="B158" s="45"/>
-      <c r="C158" s="45" t="s">
+      <c r="B158" s="44"/>
+      <c r="C158" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="46" t="s">
+      <c r="D158" s="45" t="s">
         <v>430</v>
       </c>
       <c r="E158" s="28" t="s">
@@ -7152,41 +7149,41 @@
       <c r="F158" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="G158" s="47"/>
+      <c r="G158" s="46"/>
     </row>
     <row r="159" s="4" customFormat="1" spans="1:7">
       <c r="A159" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="B159" s="45"/>
-      <c r="C159" s="45" t="s">
+      <c r="B159" s="44"/>
+      <c r="C159" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="D159" s="46" t="s">
+      <c r="D159" s="45" t="s">
         <v>434</v>
       </c>
       <c r="E159" s="29" t="s">
         <v>435</v>
       </c>
       <c r="F159" s="29"/>
-      <c r="G159" s="47"/>
+      <c r="G159" s="46"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:7">
       <c r="A160" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="B160" s="45"/>
-      <c r="C160" s="45" t="s">
+      <c r="B160" s="44"/>
+      <c r="C160" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="D160" s="46" t="s">
+      <c r="D160" s="45" t="s">
         <v>437</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>438</v>
       </c>
       <c r="F160" s="29"/>
-      <c r="G160" s="47"/>
+      <c r="G160" s="46"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="11" t="s">
@@ -8069,15 +8066,15 @@
       <c r="A220" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="B220" s="48"/>
-      <c r="C220" s="48"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="47"/>
       <c r="D220" s="27" t="s">
         <v>578</v>
       </c>
       <c r="E220" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="F220" s="46" t="s">
+      <c r="F220" s="45" t="s">
         <v>579</v>
       </c>
       <c r="G220" s="27"/>
@@ -8086,13 +8083,13 @@
       <c r="A221" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B221" s="48"/>
-      <c r="C221" s="48"/>
+      <c r="B221" s="47"/>
+      <c r="C221" s="47"/>
       <c r="D221" s="27"/>
-      <c r="E221" s="49" t="s">
+      <c r="E221" s="48" t="s">
         <v>580</v>
       </c>
-      <c r="F221" s="46"/>
+      <c r="F221" s="45"/>
       <c r="G221" s="27"/>
     </row>
     <row r="222" spans="1:7">
